--- a/Fuctionality&Requirements/ProgramFunctionality/TechnicalDataType.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/TechnicalDataType.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1188CB-93FA-49F6-8A08-738397DC5E66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505E2C66-132F-4075-9AF7-2EE7DA01194B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="1590" windowWidth="14610" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11985" yWindow="1065" windowWidth="16485" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDMTypeMaint" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="171">
   <si>
     <t>№</t>
   </si>
@@ -195,27 +195,15 @@
     <t>If the user click on the "Note" item the next program should open for the selected work supplier:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) note</t>
-  </si>
-  <si>
     <t>If the user click on the "Documents" item the next program should open for the selected work supplier:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) drawing_combination</t>
-  </si>
-  <si>
     <t>If the user click on the "Address" item the next program should open for the selected work supplier:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) location_combination</t>
-  </si>
-  <si>
     <t>If the user click on the "Contacts" item the next program should open for the selected work supplier:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) contact_combination</t>
-  </si>
-  <si>
     <t>If the user click on the "Save design" all design changes should be saved.</t>
   </si>
   <si>
@@ -306,27 +294,12 @@
     <t>If the user clicks on the "View detailed information" the program that should be opened depends on the field to which the user is focused. The next programs should open for the correspond values in fields:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) tdm_type if the user is focused on the "Tech. data key" field</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Point and shoot" the program that should be opened depends on the field to which the user is focused. The next programs should open for the correspond values in fields:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) site if the user is focused on the "Site" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) site if the user is focused on the "Site" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) tdm_type if the user is focused on the "Tech. data key" field</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Tree" the program that should be opened depends on the field to which the user is focused. The next programs should open for the correspond values in fields:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (apicbf) tdm_type_tree if the user is focused on the "Tech. data key" field.</t>
-  </si>
-  <si>
     <t>The "Options" tab should have the next items:</t>
   </si>
   <si>
@@ -348,21 +321,12 @@
     <t xml:space="preserve"> - Value list in use</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) tdm_combination</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Included in" item the next program should be opened for the selected technical data:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) tdinclin</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Value list" item the next program should be opened for the selected technical data:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) tdm_valid_values</t>
-  </si>
-  <si>
     <t>The window with user manual should opens if the user clicks on the "Contents" item.</t>
   </si>
   <si>
@@ -510,25 +474,13 @@
     <t>If the user clicks on the "Point and Shoot" button near the "Tech. data key" field then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) tdm_type</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Point and Shoot" button near the "Site" field then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) site</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Point and Shoot" button near the "Unit" field then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) unit</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Tree" button near the "Tech. data key" field the next program should open:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (apicbf) tdm_type_tree</t>
   </si>
   <si>
     <t>If the user enters the key of technical data that already exists and presses the "Tab" key on the keyboard, then this  key should be displayed in the "tech. data key" field. Other fields should be filled by the correspond values, those are connected to the selected technical data.</t>
@@ -901,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -985,6 +937,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,14 +973,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1021,50 +1015,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1349,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,11 +1331,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1450,11 +1408,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -1477,251 +1435,251 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="29" t="str">
+      <c r="C15" s="38" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85845","C85845")</f>
         <v>C85845</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="40"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="29" t="str">
+      <c r="C21" s="38" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85845","C85845")</f>
         <v>C85845</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="39"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="39"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="39"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="39"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="39"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="39"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="39"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="39"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="31"/>
+      <c r="C34" s="40"/>
     </row>
     <row r="35" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
     </row>
     <row r="36" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="47" t="str">
+      <c r="C37" s="55" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85846","C85846")</f>
         <v>C85846</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="30"/>
+      <c r="C38" s="39"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="30"/>
+      <c r="C39" s="39"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="30"/>
+      <c r="C40" s="39"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="30"/>
+      <c r="C41" s="39"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="30"/>
+      <c r="C42" s="39"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="30"/>
+      <c r="C43" s="39"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="30"/>
+      <c r="C44" s="39"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="30"/>
+      <c r="C45" s="39"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="30"/>
+      <c r="C46" s="39"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="30"/>
+      <c r="C47" s="39"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="31"/>
+      <c r="C48" s="40"/>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
@@ -1774,77 +1732,81 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="37" t="str">
+      <c r="C54" s="51" t="str">
         <f t="shared" si="1"/>
         <v>C85846</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="50"/>
+      <c r="B55" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B663"," - (maint) note")</f>
+        <v xml:space="preserve"> - (maint) note</v>
+      </c>
+      <c r="C55" s="52"/>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="49"/>
+      <c r="B56" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="38"/>
-    </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="37" t="str">
+      <c r="C56" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85846","C85846")</f>
         <v>C85846</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="38"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B306"," - (browse) drawing_combination")</f>
+        <v xml:space="preserve"> - (browse) drawing_combination</v>
+      </c>
+      <c r="C57" s="52"/>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="37" t="str">
+        <v>53</v>
+      </c>
+      <c r="C58" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85846","C85846")</f>
         <v>C85846</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="38"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B578"," - (browse) location_combination")</f>
+        <v xml:space="preserve"> - (browse) location_combination</v>
+      </c>
+      <c r="C59" s="52"/>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="37" t="str">
+        <v>54</v>
+      </c>
+      <c r="C60" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85846","C85846")</f>
         <v>C85846</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="38"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B172"," - (browse) contact_combination")</f>
+        <v xml:space="preserve"> - (browse) contact_combination</v>
+      </c>
+      <c r="C61" s="52"/>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C62" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85846","C85846")</f>
@@ -1854,7 +1816,7 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C63" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85846","C85846")</f>
@@ -1864,7 +1826,7 @@
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C64" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85846","C85846")</f>
@@ -1874,7 +1836,7 @@
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C65" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85846","C85846")</f>
@@ -1884,7 +1846,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C66" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85846","C85846")</f>
@@ -1892,54 +1854,54 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
+      <c r="A67" s="49"/>
       <c r="B67" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="37" t="str">
+        <v>60</v>
+      </c>
+      <c r="C67" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85847","C85847")</f>
         <v>C85847</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="40"/>
+      <c r="C68" s="54"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="40"/>
+        <v>61</v>
+      </c>
+      <c r="C69" s="54"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="40"/>
+        <v>62</v>
+      </c>
+      <c r="C70" s="54"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="53"/>
       <c r="B71" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="40"/>
+        <v>63</v>
+      </c>
+      <c r="C71" s="54"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="38"/>
+        <v>64</v>
+      </c>
+      <c r="C72" s="52"/>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C73" s="25" t="str">
         <f t="shared" ref="C73:C78" si="2">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85847","C85847")</f>
@@ -1949,7 +1911,7 @@
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C74" s="25" t="str">
         <f t="shared" si="2"/>
@@ -1959,7 +1921,7 @@
     <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C75" s="25" t="str">
         <f t="shared" si="2"/>
@@ -1969,7 +1931,7 @@
     <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C76" s="25" t="str">
         <f t="shared" si="2"/>
@@ -1979,7 +1941,7 @@
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C77" s="25" t="str">
         <f t="shared" si="2"/>
@@ -1989,7 +1951,7 @@
     <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="14" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C78" s="25" t="str">
         <f t="shared" si="2"/>
@@ -1997,75 +1959,75 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
+      <c r="A79" s="49"/>
       <c r="B79" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" s="37" t="str">
+        <v>70</v>
+      </c>
+      <c r="C79" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85848","C85848")</f>
         <v>C85848</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
+      <c r="A80" s="53"/>
       <c r="B80" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="40"/>
+      <c r="C80" s="54"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
+      <c r="A81" s="53"/>
       <c r="B81" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="40"/>
+      <c r="C81" s="54"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="40"/>
+      <c r="C82" s="54"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
+      <c r="A83" s="53"/>
       <c r="B83" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="40"/>
+      <c r="C83" s="54"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="40"/>
+      <c r="C84" s="54"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
+      <c r="A85" s="53"/>
       <c r="B85" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" s="40"/>
+        <v>71</v>
+      </c>
+      <c r="C85" s="54"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="40"/>
+        <v>72</v>
+      </c>
+      <c r="C86" s="54"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="38"/>
+        <v>73</v>
+      </c>
+      <c r="C87" s="52"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C88" s="25" t="str">
         <f t="shared" ref="C88:C98" si="3">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85848","C85848")</f>
@@ -2075,7 +2037,7 @@
     <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C89" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2085,7 +2047,7 @@
     <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C90" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2095,7 +2057,7 @@
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C91" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2105,7 +2067,7 @@
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2115,7 +2077,7 @@
     <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2125,7 +2087,7 @@
     <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2135,7 +2097,7 @@
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C95" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2145,7 +2107,7 @@
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2155,7 +2117,7 @@
     <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C97" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2163,74 +2125,79 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
+      <c r="A98" s="35"/>
       <c r="B98" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" s="29" t="str">
+        <v>84</v>
+      </c>
+      <c r="C98" s="38" t="str">
         <f t="shared" si="3"/>
         <v>C85848</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
-      <c r="B99" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" s="30"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="57" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B996"," - (maint) site if the user is focused on the Site field")</f>
+        <v xml:space="preserve"> - (maint) site if the user is focused on the Site field</v>
+      </c>
+      <c r="C99" s="39"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
-      <c r="B100" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C100" s="31"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1209"," - (maint) tdm_type if the user is focused on the Tech. data key field")</f>
+        <v xml:space="preserve"> - (maint) tdm_type if the user is focused on the Tech. data key field</v>
+      </c>
+      <c r="C100" s="40"/>
     </row>
     <row r="101" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="32"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C101" s="29" t="str">
+        <v>85</v>
+      </c>
+      <c r="C101" s="38" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85848","C85848")</f>
         <v>C85848</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
-      <c r="B102" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="30"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="57" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B994"," - (browse) site if the user is focused on the Site field")</f>
+        <v xml:space="preserve"> - (browse) site if the user is focused on the Site field</v>
+      </c>
+      <c r="C102" s="39"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="31"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1207"," - (browse) tdm_type if the user is focused on the Tech. data key field")</f>
+        <v xml:space="preserve"> - (browse) tdm_type if the user is focused on the Tech. data key field</v>
+      </c>
+      <c r="C103" s="40"/>
     </row>
     <row r="104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104" s="29" t="str">
+        <v>86</v>
+      </c>
+      <c r="C104" s="38" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85848","C85848")</f>
         <v>C85848</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" s="31"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1210"," - (apicbf) tdm_type_tree if the user is focused on the Tech. data key field")</f>
+        <v xml:space="preserve"> - (apicbf) tdm_type_tree if the user is focused on the Tech. data key field</v>
+      </c>
+      <c r="C105" s="40"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
       <c r="B106" s="14" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C106" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85849","C85849")</f>
@@ -2238,40 +2205,40 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C107" s="29" t="str">
+        <v>87</v>
+      </c>
+      <c r="C107" s="38" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85849","C85849")</f>
         <v>C85849</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="33"/>
+      <c r="A108" s="36"/>
       <c r="B108" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C108" s="30"/>
+      <c r="C108" s="39"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="33"/>
+      <c r="A109" s="36"/>
       <c r="B109" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C109" s="30"/>
+      <c r="C109" s="39"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
+      <c r="A110" s="37"/>
       <c r="B110" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C110" s="31"/>
+      <c r="C110" s="40"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="14" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C111" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85849","C85849")</f>
@@ -2281,7 +2248,7 @@
     <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
       <c r="B112" s="14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C112" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85849","C85849")</f>
@@ -2289,531 +2256,538 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C113" s="52" t="str">
+        <v>91</v>
+      </c>
+      <c r="C113" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85849","C85849")</f>
         <v>C85849</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
-      <c r="B114" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C114" s="50"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1200"," - (browse) tdm_combination")</f>
+        <v xml:space="preserve"> - (browse) tdm_combination</v>
+      </c>
+      <c r="C114" s="34"/>
     </row>
     <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C115" s="52" t="str">
+        <v>94</v>
+      </c>
+      <c r="C115" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85849","C85849")</f>
         <v>C85849</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="49"/>
-      <c r="B116" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C116" s="50"/>
+      <c r="A116" s="32"/>
+      <c r="B116" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1198"," - (browse) tdinclin")</f>
+        <v xml:space="preserve"> - (browse) tdinclin</v>
+      </c>
+      <c r="C116" s="34"/>
     </row>
     <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C117" s="52" t="str">
+        <v>95</v>
+      </c>
+      <c r="C117" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85849","C85849")</f>
         <v>C85849</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="49"/>
-      <c r="B118" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C118" s="50"/>
+      <c r="A118" s="32"/>
+      <c r="B118" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1211"," - (browse) tdm_valid_values")</f>
+        <v xml:space="preserve"> - (browse) tdm_valid_values</v>
+      </c>
+      <c r="C118" s="34"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="23" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C119" s="11"/>
     </row>
     <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="23" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C120" s="11"/>
     </row>
     <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="18" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C121" s="11"/>
     </row>
     <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="14"/>
       <c r="B122" s="23" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C122" s="11"/>
     </row>
     <row r="123" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B123" s="42"/>
-      <c r="C123" s="43"/>
+      <c r="A123" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B123" s="45"/>
+      <c r="C123" s="46"/>
     </row>
     <row r="124" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B124" s="45"/>
-      <c r="C124" s="46"/>
+      <c r="A124" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124" s="42"/>
+      <c r="C124" s="43"/>
     </row>
     <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C125" s="54" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <v>111</v>
+      </c>
+      <c r="C125" s="29" t="str">
+        <f t="shared" ref="C125:C131" si="4">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
         <v>C85850</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="14" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C126" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" si="4"/>
         <v>C85850</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="14" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C127" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" si="4"/>
         <v>C85850</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C128" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" si="4"/>
         <v>C85850</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C129" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" si="4"/>
         <v>C85850</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="14" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C130" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>C85850</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="49"/>
+      <c r="B131" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" s="51" t="str">
+        <f t="shared" si="4"/>
+        <v>C85850</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="50"/>
+      <c r="B132" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B663"," - (maint) note")</f>
+        <v xml:space="preserve"> - (maint) note</v>
+      </c>
+      <c r="C132" s="52"/>
+    </row>
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="49"/>
+      <c r="B133" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C133" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
         <v>C85850</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C131" s="37" t="str">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="50"/>
+      <c r="B134" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B306"," - (browse) drawing_combination")</f>
+        <v xml:space="preserve"> - (browse) drawing_combination</v>
+      </c>
+      <c r="C134" s="52"/>
+    </row>
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="49"/>
+      <c r="B135" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C135" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
         <v>C85850</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="36"/>
-      <c r="B132" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C132" s="38"/>
-    </row>
-    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
-      <c r="B133" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C133" s="37" t="str">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="50"/>
+      <c r="B136" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B578"," - (browse) location_combination")</f>
+        <v xml:space="preserve"> - (browse) location_combination</v>
+      </c>
+      <c r="C136" s="52"/>
+    </row>
+    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="49"/>
+      <c r="B137" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
         <v>C85850</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="36"/>
-      <c r="B134" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C134" s="38"/>
-    </row>
-    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
-      <c r="B135" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C135" s="37" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
-        <v>C85850</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="36"/>
-      <c r="B136" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C136" s="38"/>
-    </row>
-    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
-      <c r="B137" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137" s="37" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
-        <v>C85850</v>
-      </c>
-    </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
-      <c r="B138" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C138" s="38"/>
+      <c r="A138" s="50"/>
+      <c r="B138" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B172"," - (browse) contact_combination")</f>
+        <v xml:space="preserve"> - (browse) contact_combination</v>
+      </c>
+      <c r="C138" s="52"/>
     </row>
     <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="14" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C139" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" ref="C139:C147" si="5">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
         <v>C85850</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="14" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C140" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" si="5"/>
         <v>C85850</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C141" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" si="5"/>
         <v>C85850</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="14" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C142" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" si="5"/>
         <v>C85850</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="14" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C143" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" si="5"/>
         <v>C85850</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="14" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C144" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" si="5"/>
         <v>C85850</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C145" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" si="5"/>
         <v>C85850</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="14" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C146" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" si="5"/>
         <v>C85850</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="14"/>
       <c r="B147" s="14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C147" s="25" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85850","C85850")</f>
+        <f t="shared" si="5"/>
         <v>C85850</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B148" s="42"/>
-      <c r="C148" s="43"/>
+      <c r="A148" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B148" s="45"/>
+      <c r="C148" s="46"/>
     </row>
     <row r="149" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="44" t="s">
+      <c r="A149" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B149" s="45"/>
-      <c r="C149" s="46"/>
+      <c r="B149" s="42"/>
+      <c r="C149" s="43"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="32"/>
+      <c r="A150" s="35"/>
       <c r="B150" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C150" s="29" t="str">
+      <c r="C150" s="38" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85845","C85845")</f>
         <v>C85845</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="33"/>
+      <c r="A151" s="36"/>
       <c r="B151" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C151" s="30"/>
+      <c r="C151" s="39"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="33"/>
+      <c r="A152" s="36"/>
       <c r="B152" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C152" s="30"/>
+      <c r="C152" s="39"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="33"/>
+      <c r="A153" s="36"/>
       <c r="B153" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C153" s="30"/>
+      <c r="C153" s="39"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="32"/>
+      <c r="A154" s="35"/>
       <c r="B154" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C154" s="29" t="str">
+        <v>92</v>
+      </c>
+      <c r="C154" s="38" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85845","C85845")</f>
         <v>C85845</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="34"/>
+      <c r="A155" s="37"/>
       <c r="B155" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C155" s="31"/>
+        <v>93</v>
+      </c>
+      <c r="C155" s="40"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="48"/>
+      <c r="A156" s="31"/>
       <c r="B156" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C156" s="52" t="str">
+        <v>121</v>
+      </c>
+      <c r="C156" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85845","C85845")</f>
         <v>C85845</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="51"/>
+      <c r="A157" s="47"/>
       <c r="B157" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C157" s="53"/>
+        <v>122</v>
+      </c>
+      <c r="C157" s="48"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="51"/>
+      <c r="A158" s="47"/>
       <c r="B158" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C158" s="53"/>
+        <v>123</v>
+      </c>
+      <c r="C158" s="48"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="51"/>
+      <c r="A159" s="47"/>
       <c r="B159" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C159" s="53"/>
+        <v>124</v>
+      </c>
+      <c r="C159" s="48"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="51"/>
+      <c r="A160" s="47"/>
       <c r="B160" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C160" s="53"/>
+        <v>125</v>
+      </c>
+      <c r="C160" s="48"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="51"/>
+      <c r="A161" s="47"/>
       <c r="B161" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C161" s="53"/>
+        <v>126</v>
+      </c>
+      <c r="C161" s="48"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="51"/>
+      <c r="A162" s="47"/>
       <c r="B162" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C162" s="53"/>
+        <v>127</v>
+      </c>
+      <c r="C162" s="48"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="49"/>
+      <c r="A163" s="32"/>
       <c r="B163" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C163" s="50"/>
+        <v>128</v>
+      </c>
+      <c r="C163" s="34"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="32"/>
+      <c r="A164" s="35"/>
       <c r="B164" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C164" s="29" t="str">
+        <v>160</v>
+      </c>
+      <c r="C164" s="38" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85845","C85845")</f>
         <v>C85845</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="33"/>
+      <c r="A165" s="36"/>
       <c r="B165" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C165" s="30"/>
+        <v>161</v>
+      </c>
+      <c r="C165" s="39"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="33"/>
+      <c r="A166" s="36"/>
       <c r="B166" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C166" s="30"/>
+        <v>162</v>
+      </c>
+      <c r="C166" s="39"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="33"/>
+      <c r="A167" s="36"/>
       <c r="B167" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C167" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="C167" s="39"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="33"/>
+      <c r="A168" s="36"/>
       <c r="B168" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C168" s="30"/>
+        <v>164</v>
+      </c>
+      <c r="C168" s="39"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="34"/>
+      <c r="A169" s="37"/>
       <c r="B169" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C169" s="31"/>
+        <v>165</v>
+      </c>
+      <c r="C169" s="40"/>
     </row>
     <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="32"/>
+      <c r="A170" s="35"/>
       <c r="B170" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C170" s="29" t="str">
+        <v>129</v>
+      </c>
+      <c r="C170" s="38" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
         <v>C85851</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="33"/>
+      <c r="A171" s="36"/>
       <c r="B171" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C171" s="30"/>
+        <v>130</v>
+      </c>
+      <c r="C171" s="39"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="33"/>
+      <c r="A172" s="36"/>
       <c r="B172" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C172" s="30"/>
+        <v>131</v>
+      </c>
+      <c r="C172" s="39"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="33"/>
+      <c r="A173" s="36"/>
       <c r="B173" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C173" s="30"/>
+        <v>132</v>
+      </c>
+      <c r="C173" s="39"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="33"/>
+      <c r="A174" s="36"/>
       <c r="B174" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C174" s="30"/>
+        <v>133</v>
+      </c>
+      <c r="C174" s="39"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="34"/>
+      <c r="A175" s="37"/>
       <c r="B175" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C175" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="C175" s="40"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
       <c r="B176" s="14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C176" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85852","C85852")</f>
@@ -2823,7 +2797,7 @@
     <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
       <c r="B177" s="14" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C177" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85845","C85845")</f>
@@ -2833,7 +2807,7 @@
     <row r="178" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="17"/>
       <c r="B178" s="14" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C178" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85845","C85845")</f>
@@ -2841,16 +2815,16 @@
       </c>
     </row>
     <row r="179" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B179" s="45"/>
-      <c r="C179" s="46"/>
+      <c r="A179" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B179" s="42"/>
+      <c r="C179" s="43"/>
     </row>
     <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
       <c r="B180" s="14" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C180" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
@@ -2860,7 +2834,7 @@
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
       <c r="B181" s="14" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C181" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
@@ -2870,14 +2844,14 @@
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
       <c r="B182" s="14" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C182" s="25"/>
     </row>
     <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="17"/>
       <c r="B183" s="14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C183" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
@@ -2887,7 +2861,7 @@
     <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
       <c r="B184" s="14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C184" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
@@ -2897,7 +2871,7 @@
     <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
       <c r="B185" s="14" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C185" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
@@ -2905,177 +2879,181 @@
       </c>
     </row>
     <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="48"/>
+      <c r="A186" s="31"/>
       <c r="B186" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C186" s="52" t="str">
+        <v>144</v>
+      </c>
+      <c r="C186" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
         <v>C85851</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="49"/>
-      <c r="B187" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C187" s="50"/>
+      <c r="A187" s="32"/>
+      <c r="B187" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1207"," - (browse) tdm_type")</f>
+        <v xml:space="preserve"> - (browse) tdm_type</v>
+      </c>
+      <c r="C187" s="34"/>
     </row>
     <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="48"/>
+      <c r="A188" s="31"/>
       <c r="B188" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C188" s="52" t="str">
+        <v>145</v>
+      </c>
+      <c r="C188" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
         <v>C85851</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="49"/>
-      <c r="B189" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C189" s="50"/>
+      <c r="A189" s="32"/>
+      <c r="B189" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B994"," - (browse) site")</f>
+        <v xml:space="preserve"> - (browse) site</v>
+      </c>
+      <c r="C189" s="34"/>
     </row>
     <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="48"/>
+      <c r="A190" s="31"/>
       <c r="B190" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C190" s="52" t="str">
+        <v>146</v>
+      </c>
+      <c r="C190" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
         <v>C85851</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="49"/>
-      <c r="B191" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C191" s="50"/>
+      <c r="A191" s="32"/>
+      <c r="B191" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1328"," - (browse) unit")</f>
+        <v xml:space="preserve"> - (browse) unit</v>
+      </c>
+      <c r="C191" s="34"/>
     </row>
     <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="48"/>
+      <c r="A192" s="31"/>
       <c r="B192" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C192" s="52" t="str">
+        <v>147</v>
+      </c>
+      <c r="C192" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
         <v>C85851</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="49"/>
-      <c r="B193" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C193" s="50"/>
+      <c r="A193" s="32"/>
+      <c r="B193" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1210"," - (apicbf) tdm_type_tree")</f>
+        <v xml:space="preserve"> - (apicbf) tdm_type_tree</v>
+      </c>
+      <c r="C193" s="34"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="19"/>
       <c r="B194" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C194" s="55" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
+        <v>159</v>
+      </c>
+      <c r="C194" s="30" t="str">
+        <f t="shared" ref="C194:C203" si="6">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
         <v>C85851</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
       <c r="B195" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C195" s="28" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
+        <f t="shared" si="6"/>
         <v>C85851</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
       <c r="B196" s="14" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C196" s="28" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
+        <f t="shared" si="6"/>
         <v>C85851</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="17"/>
       <c r="B197" s="5" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C197" s="28" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
+        <f t="shared" si="6"/>
         <v>C85851</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
       <c r="B198" s="5" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C198" s="28" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
+        <f t="shared" si="6"/>
         <v>C85851</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
       <c r="B199" s="14" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C199" s="28" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
+        <f t="shared" si="6"/>
         <v>C85851</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
       <c r="B200" s="14" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C200" s="28" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
+        <f t="shared" si="6"/>
         <v>C85851</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="17"/>
       <c r="B201" s="14" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C201" s="28" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
+        <f t="shared" si="6"/>
         <v>C85851</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
       <c r="B202" s="14" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C202" s="28" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
+        <f t="shared" si="6"/>
         <v>C85851</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="17"/>
       <c r="B203" s="14" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C203" s="28" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85851","C85851")</f>
+        <f t="shared" si="6"/>
         <v>C85851</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="17"/>
       <c r="B204" s="14" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C204" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85852","C85852")</f>
@@ -3085,7 +3063,7 @@
     <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="17"/>
       <c r="B205" s="14" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C205" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85852","C85852")</f>
@@ -3095,7 +3073,7 @@
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
       <c r="B206" s="14" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C206" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85853","C85853")</f>
@@ -3105,7 +3083,7 @@
     <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="17"/>
       <c r="B207" s="14" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C207" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85853","C85853")</f>
@@ -3113,58 +3091,118 @@
       </c>
     </row>
     <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="48"/>
+      <c r="A208" s="31"/>
       <c r="B208" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C208" s="52" t="str">
+        <v>156</v>
+      </c>
+      <c r="C208" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85853","C85853")</f>
         <v>C85853</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="49"/>
-      <c r="B209" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C209" s="50"/>
+      <c r="A209" s="32"/>
+      <c r="B209" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1200"," - (browse) tdm_combination")</f>
+        <v xml:space="preserve"> - (browse) tdm_combination</v>
+      </c>
+      <c r="C209" s="34"/>
     </row>
     <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="48"/>
+      <c r="A210" s="31"/>
       <c r="B210" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C210" s="52" t="str">
+        <v>157</v>
+      </c>
+      <c r="C210" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85853","C85853")</f>
         <v>C85853</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="49"/>
-      <c r="B211" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C211" s="50"/>
+      <c r="A211" s="32"/>
+      <c r="B211" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1198"," - (browse) tdinclin")</f>
+        <v xml:space="preserve"> - (browse) tdinclin</v>
+      </c>
+      <c r="C211" s="34"/>
     </row>
     <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="48"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C212" s="52" t="str">
+        <v>158</v>
+      </c>
+      <c r="C212" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85853","C85853")</f>
         <v>C85853</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="49"/>
-      <c r="B213" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C213" s="50"/>
+      <c r="A213" s="32"/>
+      <c r="B213" s="56" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1211"," - (browse) tdm_valid_values")</f>
+        <v xml:space="preserve"> - (browse) tdm_valid_values</v>
+      </c>
+      <c r="C213" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A79:A87"/>
+    <mergeCell ref="C79:C87"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A21:A34"/>
+    <mergeCell ref="C21:C34"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A156:A163"/>
+    <mergeCell ref="C156:C163"/>
+    <mergeCell ref="A170:A175"/>
+    <mergeCell ref="C170:C175"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:C155"/>
     <mergeCell ref="A210:A211"/>
     <mergeCell ref="C210:C211"/>
     <mergeCell ref="A212:A213"/>
@@ -3181,63 +3219,6 @@
     <mergeCell ref="A186:A187"/>
     <mergeCell ref="C186:C187"/>
     <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A156:A163"/>
-    <mergeCell ref="C156:C163"/>
-    <mergeCell ref="A170:A175"/>
-    <mergeCell ref="C170:C175"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A21:A34"/>
-    <mergeCell ref="C21:C34"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="C37:C48"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A79:A87"/>
-    <mergeCell ref="C79:C87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
